--- a/Algebra y Estadistica/3- clase 10-4-24/medidas de tendencia.xlsx
+++ b/Algebra y Estadistica/3- clase 10-4-24/medidas de tendencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desarrollo De Software 2023 Junin\Segundo Semestre\Algebra y Estadistica\clase 10-4-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desarrollo De Software 2023 Junin\Segundo Semestre\Algebra y Estadistica\3- clase 10-4-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875D490-F45C-48B3-ACAE-75EFD8AAD6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB0EF5-599A-4399-A194-72B67C9D21D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="0" windowWidth="15375" windowHeight="7785" xr2:uid="{4CC8F0B0-FA9F-42C7-9929-FF511263963B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4CC8F0B0-FA9F-42C7-9929-FF511263963B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,10 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +421,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +549,7 @@
         <f t="shared" ref="B10:C10" si="2">VAR(B1:B7)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
